--- a/Table/Table_xls/z职业转盘表.xlsx
+++ b/Table/Table_xls/z职业转盘表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">位置1:道具id
+          <t>位置1:道具id
 位置2:个数
 位置3:全重
 职位4：客户端提示表id
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -110,28 +109,28 @@
     <t>必给数量</t>
   </si>
   <si>
-    <t>310102;1;1000;0;0</t>
-  </si>
-  <si>
-    <t>337008;1;1500;0;0</t>
-  </si>
-  <si>
-    <t>334100;1;2000;0;0</t>
-  </si>
-  <si>
-    <t>337010;1;1000;0;0</t>
-  </si>
-  <si>
-    <t>340023;1;1000;0;0</t>
-  </si>
-  <si>
-    <t>339109;1;300;0;0</t>
-  </si>
-  <si>
-    <t>331300;1;2000;0;0</t>
-  </si>
-  <si>
-    <t>337012;1;1200;0;0</t>
+    <t>335062;1;1000;0;0</t>
+  </si>
+  <si>
+    <t>335042;1;1500;0;0</t>
+  </si>
+  <si>
+    <t>631137;1;2000;0;0</t>
+  </si>
+  <si>
+    <t>337943;1;1000;0;0</t>
+  </si>
+  <si>
+    <t>631140;1;1000;0;0</t>
+  </si>
+  <si>
+    <t>333176;1;300;0;0</t>
+  </si>
+  <si>
+    <t>522133;1;2000;0;0</t>
+  </si>
+  <si>
+    <t>340081;1;1200;0;0</t>
   </si>
   <si>
     <t>333176;1;1;0;1</t>
@@ -143,7 +142,7 @@
     <t>522135;1;1;0;1</t>
   </si>
   <si>
-    <t>631138;1;50;0;1</t>
+    <t>335041;1;50;0;1</t>
   </si>
   <si>
     <t>631137;1;15;0;1</t>
@@ -155,13 +154,13 @@
     <t>631136;1;30;0;1</t>
   </si>
   <si>
-    <t>331301;1;50;0;1</t>
-  </si>
-  <si>
-    <t>337943;1;50;0;1</t>
-  </si>
-  <si>
-    <t>340228;1;5;0;1</t>
+    <t>335040;1;50;0;1</t>
+  </si>
+  <si>
+    <t>335042;1;5;0;1</t>
+  </si>
+  <si>
+    <t>340228;1;50;0;1</t>
   </si>
   <si>
     <t>631124;1;10;0;1</t>
@@ -320,7 +319,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -362,6 +361,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -370,21 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -394,14 +439,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,95 +491,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -545,181 +549,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +734,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,57 +795,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,8 +818,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,10 +842,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +854,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1067,6 +1071,11 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,17 +1401,16 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2082,7 +2090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/Table/Table_xls/z职业转盘表.xlsx
+++ b/Table/Table_xls/z职业转盘表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -133,67 +133,70 @@
     <t>340081;1;1200;0;0</t>
   </si>
   <si>
+    <t>333176;1;10;0;1</t>
+  </si>
+  <si>
+    <t>522133;1;20;0;1</t>
+  </si>
+  <si>
+    <t>340432;1;1;0;1</t>
+  </si>
+  <si>
+    <t>335041;1;300;0;1</t>
+  </si>
+  <si>
+    <t>631137;1;15;0;1</t>
+  </si>
+  <si>
+    <t>340453;1;1;0;1</t>
+  </si>
+  <si>
+    <t>631136;1;100;0;1</t>
+  </si>
+  <si>
+    <t>335040;1;50;0;1</t>
+  </si>
+  <si>
+    <t>335042;1;50;0;1</t>
+  </si>
+  <si>
+    <t>340228;1;50;0;1</t>
+  </si>
+  <si>
+    <t>631124;1;50;0;1</t>
+  </si>
+  <si>
+    <t>340233;1;300;0;1</t>
+  </si>
+  <si>
+    <t>522132;1;10;0;1</t>
+  </si>
+  <si>
+    <t>331403;1;1;0;1</t>
+  </si>
+  <si>
+    <t>311135;1;1;0;1</t>
+  </si>
+  <si>
+    <t>311083;1;1;0;1</t>
+  </si>
+  <si>
+    <t>311091;1;5;0;1</t>
+  </si>
+  <si>
+    <t>337013;1;15;0;1</t>
+  </si>
+  <si>
+    <t>339102;1;5;0;1</t>
+  </si>
+  <si>
+    <t>335012;1;30;0;1</t>
+  </si>
+  <si>
+    <t>340161;1;50;0;1</t>
+  </si>
+  <si>
     <t>333176;1;1;0;1</t>
-  </si>
-  <si>
-    <t>522133;1;2;0;1</t>
-  </si>
-  <si>
-    <t>522135;1;1;0;1</t>
-  </si>
-  <si>
-    <t>335041;1;50;0;1</t>
-  </si>
-  <si>
-    <t>631137;1;15;0;1</t>
-  </si>
-  <si>
-    <t>631140;1;1;0;1</t>
-  </si>
-  <si>
-    <t>631136;1;30;0;1</t>
-  </si>
-  <si>
-    <t>335040;1;50;0;1</t>
-  </si>
-  <si>
-    <t>335042;1;5;0;1</t>
-  </si>
-  <si>
-    <t>340228;1;50;0;1</t>
-  </si>
-  <si>
-    <t>631124;1;10;0;1</t>
-  </si>
-  <si>
-    <t>340233;1;100;0;1</t>
-  </si>
-  <si>
-    <t>522132;1;10;0;1</t>
-  </si>
-  <si>
-    <t>331403;1;1;0;1</t>
-  </si>
-  <si>
-    <t>311135;1;1;0;1</t>
-  </si>
-  <si>
-    <t>311083;1;1;0;1</t>
-  </si>
-  <si>
-    <t>311091;1;5;0;1</t>
-  </si>
-  <si>
-    <t>337013;1;15;0;1</t>
-  </si>
-  <si>
-    <t>339102;1;5;0;1</t>
-  </si>
-  <si>
-    <t>335012;1;30;0;1</t>
-  </si>
-  <si>
-    <t>340161;1;50;0;1</t>
   </si>
   <si>
     <t>333177;1;5;0;1</t>
@@ -316,8 +319,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -354,6 +357,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -361,6 +372,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -368,8 +424,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,128 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -549,181 +552,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,45 +737,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,6 +764,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,22 +823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,10 +845,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,133 +857,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1409,21 +1412,21 @@
   <sheetPr/>
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18.1388888888889" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="24.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="22.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="32.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="24.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="28.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="22.8611111111111" customWidth="1"/>
+    <col min="7" max="7" width="32.1388888888889" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="38.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="41.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="38.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="41.5740740740741" customWidth="1"/>
     <col min="11" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1594,19 +1597,19 @@
         <v>45</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1655,7 +1658,7 @@
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
     </row>
-    <row r="11" ht="14.25" spans="1:39">
+    <row r="11" ht="15.6" spans="1:39">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1696,7 +1699,7 @@
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
     </row>
-    <row r="12" ht="14.25" spans="1:39">
+    <row r="12" ht="15.6" spans="1:39">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1737,7 +1740,7 @@
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
     </row>
-    <row r="13" ht="14.25" spans="1:39">
+    <row r="13" ht="15.6" spans="1:39">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1778,7 +1781,7 @@
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
     </row>
-    <row r="14" ht="14.25" spans="1:39">
+    <row r="14" ht="15.6" spans="1:39">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1819,7 +1822,7 @@
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
     </row>
-    <row r="15" ht="14.25" spans="1:39">
+    <row r="15" ht="15.6" spans="1:39">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1860,7 +1863,7 @@
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
     </row>
-    <row r="16" ht="14.25" spans="1:39">
+    <row r="16" ht="15.6" spans="1:39">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1901,7 +1904,7 @@
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
     </row>
-    <row r="17" ht="14.25" spans="1:39">
+    <row r="17" ht="15.6" spans="1:39">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1942,7 +1945,7 @@
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
     </row>
-    <row r="18" ht="14.25" spans="1:39">
+    <row r="18" ht="15.6" spans="1:39">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1983,7 +1986,7 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
     </row>
-    <row r="19" ht="14.25" spans="1:39">
+    <row r="19" ht="15.6" spans="1:39">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2024,7 +2027,7 @@
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
     </row>
-    <row r="20" ht="14.25" spans="1:11">
+    <row r="20" ht="15.6" spans="1:11">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2037,7 +2040,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" ht="14.25" spans="1:11">
+    <row r="21" ht="15.6" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2050,7 +2053,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" ht="14.25" spans="1:11">
+    <row r="22" ht="15.6" spans="1:11">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2063,7 +2066,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" ht="14.25" spans="1:11">
+    <row r="23" ht="15.6" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2076,7 +2079,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" ht="14.25" spans="4:6">
+    <row r="24" ht="15.6" spans="4:6">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -2098,7 +2101,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
@@ -2107,79 +2110,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2187,18 +2190,18 @@
         <v>35001</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2206,7 +2209,7 @@
         <v>35011</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/z职业转盘表.xlsx
+++ b/Table/Table_xls/z职业转盘表.xlsx
@@ -18,6 +18,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>user</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -33,6 +34,319 @@
 位置3:全重
 职位4：客户端提示表id
 职位：1代表自己提示0都提示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5万金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10万金币</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+抽奖谛听</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+50荣誉值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜能果礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+套装点化石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+星辉石搏一搏礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10点荣誉值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+坐骑随机礼包
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+神器转换符</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+全能潜能果
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+25级宝石箱子
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+孤儿名册
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+孤儿名册
+</t>
         </r>
       </text>
     </comment>
@@ -41,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -133,43 +447,46 @@
     <t>340081;1;1200;0;0</t>
   </si>
   <si>
+    <t>522132;1;50;0;1</t>
+  </si>
+  <si>
+    <t>522133;1;20;0;1</t>
+  </si>
+  <si>
+    <t>340705;1;1;0;1</t>
+  </si>
+  <si>
+    <t>335041;1;100;0;1</t>
+  </si>
+  <si>
+    <t>631137;1;15;0;1</t>
+  </si>
+  <si>
+    <t>340453;1;5;0;1</t>
+  </si>
+  <si>
+    <t>631136;1;100;0;1</t>
+  </si>
+  <si>
+    <t>335040;1;120;0;1</t>
+  </si>
+  <si>
+    <t>340682;1;50;0;1</t>
+  </si>
+  <si>
+    <t>340683;1;50;0;1</t>
+  </si>
+  <si>
+    <t>631124;1;50;0;1</t>
+  </si>
+  <si>
+    <t>340233;1;150;0;1</t>
+  </si>
+  <si>
     <t>333176;1;10;0;1</t>
   </si>
   <si>
-    <t>522133;1;20;0;1</t>
-  </si>
-  <si>
-    <t>340432;1;1;0;1</t>
-  </si>
-  <si>
-    <t>335041;1;300;0;1</t>
-  </si>
-  <si>
-    <t>631137;1;15;0;1</t>
-  </si>
-  <si>
-    <t>340453;1;1;0;1</t>
-  </si>
-  <si>
-    <t>631136;1;100;0;1</t>
-  </si>
-  <si>
-    <t>335040;1;50;0;1</t>
-  </si>
-  <si>
-    <t>335042;1;50;0;1</t>
-  </si>
-  <si>
-    <t>340228;1;50;0;1</t>
-  </si>
-  <si>
-    <t>631124;1;50;0;1</t>
-  </si>
-  <si>
-    <t>340233;1;300;0;1</t>
-  </si>
-  <si>
-    <t>522132;1;10;0;1</t>
+    <t>340706</t>
   </si>
   <si>
     <t>331403;1;1;0;1</t>
@@ -317,12 +634,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -355,6 +672,84 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -365,13 +760,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -381,14 +769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,30 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +806,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -456,64 +830,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,13 +868,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,73 +922,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,97 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +1071,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -764,15 +1142,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -784,41 +1153,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,10 +1179,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,140 +1191,140 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -1014,12 +1348,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1412,8 +1749,8 @@
   <sheetPr/>
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1525,91 +1862,94 @@
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="O3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>50</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1659,430 +1999,430 @@
       <c r="AM10" s="13"/>
     </row>
     <row r="11" ht="15.6" spans="1:39">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
     </row>
     <row r="12" ht="15.6" spans="1:39">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
     </row>
     <row r="13" ht="15.6" spans="1:39">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
     </row>
     <row r="14" ht="15.6" spans="1:39">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
     </row>
     <row r="15" ht="15.6" spans="1:39">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
     </row>
     <row r="16" ht="15.6" spans="1:39">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
     </row>
     <row r="17" ht="15.6" spans="1:39">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
     </row>
     <row r="18" ht="15.6" spans="1:39">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
     </row>
     <row r="19" ht="15.6" spans="1:39">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
     </row>
     <row r="20" ht="15.6" spans="1:11">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" ht="15.6" spans="1:11">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" ht="15.6" spans="1:11">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" ht="15.6" spans="1:11">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" ht="15.6" spans="4:6">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2110,79 +2450,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="14.4" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="14.4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="14.4" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="14.4" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="14.4" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2190,18 +2530,18 @@
         <v>35001</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2209,7 +2549,7 @@
         <v>35011</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
